--- a/data/trans_dic/P25A$otro-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007662811381111547</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005049308578655594</v>
+        <v>0.004997086524692354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02724096425922562</v>
+        <v>0.02544167986436893</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04551049734702169</v>
+        <v>0.04495361987161151</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01303389726955891</v>
+        <v>0.01301403977745629</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03375753382929497</v>
+        <v>0.02840367221586261</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0229197393381376</v>
+        <v>0.02250942263950013</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01104525850349192</v>
+        <v>0.007990577219875472</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03823845013503406</v>
+        <v>0.03723918158900238</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07188132659638212</v>
+        <v>0.06477186090168728</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04772744297161964</v>
+        <v>0.04415922681272297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.116477371397705</v>
+        <v>0.1161868706207379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2574256439684638</v>
+        <v>0.2430147584202977</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1091833769518419</v>
+        <v>0.1119825488492367</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2018221980091324</v>
+        <v>0.1963282170619047</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09396859778857584</v>
+        <v>0.08990349407382278</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05010846954049392</v>
+        <v>0.04790159810980076</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1187387701840373</v>
+        <v>0.1216026344013735</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01059403914413077</v>
+        <v>0.01040955717337677</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0</v>
+        <v>0.0041384913604099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05822772699036037</v>
+        <v>0.05945590172591708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08905995668500437</v>
+        <v>0.0830393262513623</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03295130576493298</v>
+        <v>0.03963349329773691</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04078045166319526</v>
+        <v>0.04117175684736355</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0383459084733304</v>
+        <v>0.03843231745466311</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01589992040685575</v>
+        <v>0.01667303622145924</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06248148414211834</v>
+        <v>0.06048578559260471</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06091778448289116</v>
+        <v>0.06223748098247611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03420569750181934</v>
+        <v>0.03447282335945804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1499281530027208</v>
+        <v>0.1452288023931761</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2615105118595678</v>
+        <v>0.2589919731959655</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.158735852637527</v>
+        <v>0.1581967280041529</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1550007018592016</v>
+        <v>0.1543562848814087</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1053174303356888</v>
+        <v>0.1012069699913173</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05682758206406061</v>
+        <v>0.058019854769687</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1344361754086407</v>
+        <v>0.1329824738130029</v>
       </c>
     </row>
     <row r="10">
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005385002983129443</v>
+        <v>0.005359689833690517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03125122323476786</v>
+        <v>0.03032381856651531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04536608536593035</v>
+        <v>0.04421706527296034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01890112144064719</v>
+        <v>0.0189634526111985</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09335759609120213</v>
+        <v>0.09656293319830431</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01519375087169925</v>
+        <v>0.01655044588876253</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01103113141419266</v>
+        <v>0.01433096306459245</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0652570233100852</v>
+        <v>0.06431441147579423</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04956971226385372</v>
+        <v>0.0453774390604941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04571450678117275</v>
+        <v>0.04458586146508167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1193790601962876</v>
+        <v>0.1148303837124551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2394003573842677</v>
+        <v>0.2374661479478409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1027754547260586</v>
+        <v>0.1032645748893327</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2573931617274702</v>
+        <v>0.2668200920541113</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06929018336763107</v>
+        <v>0.07640493171529826</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05480769639386283</v>
+        <v>0.05399330006975538</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1508155098160196</v>
+        <v>0.1506879726364405</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009211731888534838</v>
+        <v>0.004934660544237752</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01805003976482384</v>
+        <v>0.01781770104915689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08811861366344945</v>
+        <v>0.09300744386777457</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02202730919766178</v>
+        <v>0.02200318063279947</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008226521722691336</v>
+        <v>0.00837390884804581</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0896017595755465</v>
+        <v>0.08695952152465644</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01741227257779676</v>
+        <v>0.01725650725771326</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0158039819299281</v>
+        <v>0.01807251707163326</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1023250660707555</v>
+        <v>0.1018459977487669</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06053593578344444</v>
+        <v>0.06185799198480205</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08471982780606482</v>
+        <v>0.09129518705679687</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1952257829159707</v>
+        <v>0.2114564993981989</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1385077703291714</v>
+        <v>0.1260751252373072</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07279645617363545</v>
+        <v>0.07220022896980265</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2403721891188342</v>
+        <v>0.2307145207408125</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07129689653965909</v>
+        <v>0.0678286604265976</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06254470336010137</v>
+        <v>0.06447637402250228</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.184848989541656</v>
+        <v>0.1878098486018235</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01227294191809591</v>
+        <v>0.01383412156540324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07374173301770416</v>
+        <v>0.07149427536276004</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02971085658554116</v>
+        <v>0.02941456597556651</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09190610851847164</v>
+        <v>0.09701412316007132</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03493428982251258</v>
+        <v>0.03515896717528328</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02077588089349098</v>
+        <v>0.02133134986575567</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08871142418112429</v>
+        <v>0.0876867144835464</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0366819330260969</v>
+        <v>0.03824169442862028</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1202609059253611</v>
+        <v>0.1208931596728652</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07575033240690114</v>
+        <v>0.07503793283111447</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1693644430624982</v>
+        <v>0.1706020966101033</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06526313921903636</v>
+        <v>0.06344152492237816</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04091321152265709</v>
+        <v>0.04236494353213351</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1300490643128646</v>
+        <v>0.1310547499734259</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3220</v>
+        <v>3007</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1816</v>
+        <v>1528</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3913</v>
+        <v>3843</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2880</v>
+        <v>2083</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6578</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9304</v>
+        <v>8384</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9004</v>
+        <v>8331</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13768</v>
+        <v>13734</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10631</v>
+        <v>10036</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7871</v>
+        <v>8072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10859</v>
+        <v>10564</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16044</v>
+        <v>15349</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13065</v>
+        <v>12490</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20425</v>
+        <v>20917</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1979</v>
+        <v>1945</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10322</v>
+        <v>10539</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6852</v>
+        <v>6389</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3240</v>
+        <v>3897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3521</v>
+        <v>3554</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10115</v>
+        <v>10138</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5518</v>
+        <v>5786</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16470</v>
+        <v>15944</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11382</v>
+        <v>11629</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8507</v>
+        <v>8573</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26576</v>
+        <v>25743</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20120</v>
+        <v>19926</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15607</v>
+        <v>15554</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13382</v>
+        <v>13326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27781</v>
+        <v>26697</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19720</v>
+        <v>20134</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>35436</v>
+        <v>35053</v>
       </c>
     </row>
     <row r="12">
@@ -1690,28 +1690,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4173</v>
+        <v>4049</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1800</v>
+        <v>1755</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1950</v>
+        <v>1956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6961</v>
+        <v>7200</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2643</v>
+        <v>2880</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3039</v>
+        <v>3949</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13580</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6657</v>
+        <v>6094</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7879</v>
+        <v>7685</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15942</v>
+        <v>15334</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9500</v>
+        <v>9423</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10603</v>
+        <v>10654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19192</v>
+        <v>19895</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12055</v>
+        <v>13293</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15101</v>
+        <v>14877</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31385</v>
+        <v>31358</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1603</v>
+        <v>859</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3725</v>
+        <v>3677</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15552</v>
+        <v>16415</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10852</v>
+        <v>10532</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4646</v>
+        <v>4604</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5047</v>
+        <v>5772</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30452</v>
+        <v>30309</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10532</v>
+        <v>10762</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17484</v>
+        <v>18841</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34455</v>
+        <v>37320</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12856</v>
+        <v>11702</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8225</v>
+        <v>8158</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29111</v>
+        <v>27942</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19022</v>
+        <v>18097</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19974</v>
+        <v>20591</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>55011</v>
+        <v>55892</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7665</v>
+        <v>8640</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>44650</v>
+        <v>43289</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11485</v>
+        <v>11371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30863</v>
+        <v>32578</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>30578</v>
+        <v>30775</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>24986</v>
+        <v>25654</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>83504</v>
+        <v>82540</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22910</v>
+        <v>23885</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>72817</v>
+        <v>73200</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29282</v>
+        <v>29007</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>56874</v>
+        <v>57290</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>57125</v>
+        <v>55531</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>49204</v>
+        <v>50950</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>122416</v>
+        <v>123362</v>
       </c>
     </row>
     <row r="24">
